--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adelson sanchez\Documents\utilitario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="relaciones" sheetId="1" r:id="rId1"/>
-    <sheet name="formalizacion 3 formas" sheetId="6" r:id="rId2"/>
-    <sheet name="Clientes" sheetId="7" r:id="rId3"/>
+    <sheet name="Clientes" sheetId="7" r:id="rId2"/>
+    <sheet name="formalizacion 3 formas" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +31,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -907,9 +912,6 @@
     <t>tipoResidenciaID</t>
   </si>
   <si>
-    <t>tipoReferencia</t>
-  </si>
-  <si>
     <t>laboral</t>
   </si>
   <si>
@@ -956,13 +958,16 @@
   </si>
   <si>
     <t>GeneroID</t>
+  </si>
+  <si>
+    <t>tipoReferenciaID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,8 +1020,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,8 +1071,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1083,11 +1101,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,6 +1233,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,7 +1527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,434 +1927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G48"/>
+  <dimension ref="A2:AJ66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:7" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="20">
-        <v>1201103502</v>
-      </c>
-      <c r="C7" s="20">
-        <v>52455885</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="20">
-        <v>8496364367</v>
-      </c>
-      <c r="F7" s="20">
-        <v>8096658745</v>
-      </c>
-      <c r="G7" s="20">
-        <v>8092208217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>1</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="20">
-        <v>8496364367</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1201103502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="20">
-        <v>8096658745</v>
-      </c>
-      <c r="E13" s="20">
-        <v>52455885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="20">
-        <v>8092208217</v>
-      </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="16" spans="1:7" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>1</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20">
-        <v>8496364367</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>2</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20">
-        <v>8096658745</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>3</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20">
-        <v>8092208217</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20">
-        <v>1201103502</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20">
-        <v>52455885</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>1</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>1</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>1</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AJ68"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +1947,7 @@
     <col min="10" max="10" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="23" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="23" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="23" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" style="23" customWidth="1"/>
@@ -2404,7 +2041,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>49</v>
@@ -2482,16 +2119,16 @@
         <v>127</v>
       </c>
       <c r="AG4" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="AH4" s="26" t="s">
-        <v>200</v>
-      </c>
       <c r="AI4" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="AJ4" s="26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -2758,7 +2395,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>49</v>
@@ -2825,10 +2462,10 @@
       <c r="C11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="45">
         <v>1201103502</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="45" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -2861,7 +2498,7 @@
       <c r="O11" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="45" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="25" t="s">
@@ -2879,61 +2516,61 @@
       <c r="U11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="V11" s="33" t="s">
+      <c r="V11" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="W11" s="37" t="s">
+      <c r="W11" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="46">
         <v>11</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="33">
-        <v>510020751</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="D12" s="45">
+        <v>54555</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G12" s="27">
-        <v>32194</v>
+        <v>33095</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="M12" s="25">
-        <v>8298922597</v>
+        <v>8496364367</v>
       </c>
       <c r="N12" s="25">
         <v>2</v>
@@ -2941,8 +2578,8 @@
       <c r="O12" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="P12" s="33" t="s">
-        <v>89</v>
+      <c r="P12" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="Q12" s="25" t="s">
         <v>67</v>
@@ -2954,62 +2591,66 @@
         <v>854</v>
       </c>
       <c r="T12" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="34">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="34">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>35</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D13" s="33">
-        <v>54555</v>
+        <v>510020751</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G13" s="27">
-        <v>33095</v>
+        <v>32194</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M13" s="25">
-        <v>8496364367</v>
+        <v>8298922597</v>
       </c>
       <c r="N13" s="25">
         <v>2</v>
@@ -3018,7 +2659,7 @@
         <v>186</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="25" t="s">
         <v>67</v>
@@ -3030,25 +2671,21 @@
         <v>854</v>
       </c>
       <c r="T13" s="25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="W13" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="X13" s="38" t="s">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="W13" s="37"/>
+      <c r="X13" s="38"/>
       <c r="Y13" s="34">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="34">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -3127,12 +2764,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +2790,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>79</v>
       </c>
@@ -3170,7 +2807,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>49</v>
@@ -3209,9 +2846,8 @@
         <v>18</v>
       </c>
       <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>1</v>
       </c>
@@ -3267,9 +2903,8 @@
         <v>68</v>
       </c>
       <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>2</v>
       </c>
@@ -3325,9 +2960,8 @@
         <v>74</v>
       </c>
       <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -3347,13 +2981,12 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
       <c r="S22"/>
-      <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>110</v>
       </c>
@@ -3378,7 +3011,7 @@
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>111</v>
       </c>
@@ -3410,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>143</v>
@@ -3425,7 +3058,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>1</v>
       </c>
@@ -3456,8 +3089,8 @@
       <c r="L26" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="25" t="s">
-        <v>99</v>
+      <c r="M26" s="25">
+        <v>1</v>
       </c>
       <c r="O26" s="25">
         <v>1</v>
@@ -3472,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>2</v>
       </c>
@@ -3503,8 +3136,8 @@
       <c r="L27" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="M27" s="25" t="s">
-        <v>99</v>
+      <c r="M27" s="25">
+        <v>1</v>
       </c>
       <c r="O27" s="25">
         <v>2</v>
@@ -3519,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>3</v>
       </c>
@@ -3550,11 +3183,11 @@
       <c r="L28" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M28" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>4</v>
       </c>
@@ -3585,15 +3218,15 @@
       <c r="L29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M29" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S30"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>150</v>
       </c>
@@ -3615,10 +3248,17 @@
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
-      <c r="S31"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R31" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="25"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>163</v>
       </c>
@@ -3638,34 +3278,53 @@
         <v>194</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>79</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>15</v>
       </c>
       <c r="L32"/>
       <c r="M32" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>79</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="S32"/>
-      <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="V32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="X32" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>1</v>
       </c>
@@ -3694,7 +3353,7 @@
         <v>10000</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L33"/>
       <c r="M33" s="25">
@@ -3707,12 +3366,29 @@
         <v>1000</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="S33"/>
-      <c r="T33"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="R33" s="25">
+        <v>1</v>
+      </c>
+      <c r="S33" s="25">
+        <v>1</v>
+      </c>
+      <c r="T33" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25">
+        <v>8298922597</v>
+      </c>
+      <c r="W33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="X33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>2</v>
       </c>
@@ -3741,7 +3417,7 @@
         <v>50000</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L34"/>
       <c r="M34" s="25">
@@ -3754,22 +3430,22 @@
         <v>200</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H35" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>14</v>
       </c>
@@ -3784,9 +3460,8 @@
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>79</v>
       </c>
@@ -3803,7 +3478,7 @@
         <v>173</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>179</v>
@@ -3823,11 +3498,8 @@
       <c r="L38" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>1</v>
       </c>
@@ -3864,11 +3536,8 @@
       <c r="L39" s="25">
         <v>1</v>
       </c>
-      <c r="M39" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>2</v>
       </c>
@@ -3905,11 +3574,8 @@
       <c r="L40" s="25">
         <v>2</v>
       </c>
-      <c r="M40" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>146</v>
       </c>
@@ -3925,7 +3591,7 @@
       </c>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>85</v>
       </c>
@@ -3951,7 +3617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>1</v>
       </c>
@@ -3977,7 +3643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H46" s="25">
         <v>2</v>
       </c>
@@ -3991,7 +3657,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>151</v>
       </c>
@@ -4013,7 +3679,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>92</v>
       </c>
@@ -4053,7 +3719,7 @@
         <v>8496364367</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I49" s="26"/>
       <c r="K49" s="26" t="s">
@@ -4063,10 +3729,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H50" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K50" s="26" t="s">
         <v>187</v>
@@ -4076,14 +3742,6 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="25"/>
       <c r="H51" s="25">
         <v>1</v>
       </c>
@@ -4099,21 +3757,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>140</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B52" s="26"/>
       <c r="D52" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="25"/>
+        <v>191</v>
+      </c>
+      <c r="E52" s="25"/>
       <c r="H52" s="25">
         <v>2</v>
       </c>
@@ -4124,50 +3774,54 @@
         <v>2</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
-        <v>1</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="25">
-        <v>8096352145</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F53" s="25"/>
+      <c r="A53" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="25">
-        <v>8093654783</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="D54" s="25">
+        <v>1</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="25"/>
+        <v>126</v>
+      </c>
       <c r="H54" s="26" t="s">
         <v>178</v>
       </c>
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>2</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="H55" s="26" t="s">
         <v>179</v>
       </c>
@@ -4176,14 +3830,6 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="25"/>
       <c r="H56" s="25">
         <v>1</v>
       </c>
@@ -4193,23 +3839,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>140</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B57" s="26"/>
       <c r="D57" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>142</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E57" s="26"/>
       <c r="H57" s="25">
         <v>2</v>
       </c>
@@ -4218,125 +3854,601 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
-        <v>1</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25">
-        <v>8298922597</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" t="s">
-        <v>207</v>
+      <c r="A58" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>1</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="25">
+        <v>1</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="D60" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
-        <v>1</v>
-      </c>
-      <c r="B62" s="25" t="s">
+      <c r="A60" s="25">
+        <v>2</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="25">
+        <v>2</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>1</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="25">
+        <v>8096352145</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <v>2</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="25">
+        <v>8093654783</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="25">
-        <v>1</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
-        <v>2</v>
-      </c>
-      <c r="B63" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="25">
-        <v>2</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="D65" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
-        <v>1</v>
-      </c>
-      <c r="B67" s="25" t="s">
+      <c r="D6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1201103502</v>
+      </c>
+      <c r="C7" s="20">
+        <v>52455885</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="20">
+        <v>8496364367</v>
+      </c>
+      <c r="F7" s="20">
+        <v>8096658745</v>
+      </c>
+      <c r="G7" s="20">
+        <v>8092208217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20">
+        <v>8496364367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="20">
+        <v>8096658745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>1</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="43">
+        <v>8092208217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1201103502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="20">
+        <v>8096658745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>1</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="20">
+        <v>8092208217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20">
+        <v>8496364367</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="25">
-        <v>1</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
-        <v>2</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="25">
-        <v>2</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>164</v>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20">
+        <v>8096658745</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>3</v>
+      </c>
+      <c r="B32" s="20">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20">
+        <v>8092208217</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>1</v>
+      </c>
+      <c r="B37" s="20">
+        <v>1</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1201103502</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>2</v>
+      </c>
+      <c r="B38" s="20">
+        <v>1</v>
+      </c>
+      <c r="C38" s="20">
+        <v>52455885</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>1</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>1</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="relaciones" sheetId="1" r:id="rId1"/>
     <sheet name="formalizacion 3 formas" sheetId="6" r:id="rId2"/>
     <sheet name="Clientes" sheetId="7" r:id="rId3"/>
+    <sheet name="Cliente" sheetId="8" r:id="rId4"/>
+    <sheet name="Configuraciones" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -320,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
@@ -956,6 +958,186 @@
   </si>
   <si>
     <t>GeneroID</t>
+  </si>
+  <si>
+    <t>ClienteID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Ocupacion</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Claro dominincana</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>01201103502</t>
+  </si>
+  <si>
+    <t>10/08/1990</t>
+  </si>
+  <si>
+    <t>Dependiente</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8496364367</t>
+  </si>
+  <si>
+    <t>UsuarioID</t>
+  </si>
+  <si>
+    <t>Estado_Civil</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>NacionalidadID</t>
+  </si>
+  <si>
+    <t>EmpresaID</t>
+  </si>
+  <si>
+    <t>Credifassil</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Cliente_Conyuge</t>
+  </si>
+  <si>
+    <t>Cliente_Empleo</t>
+  </si>
+  <si>
+    <t>Rosalis perez</t>
+  </si>
+  <si>
+    <t>8298922597</t>
+  </si>
+  <si>
+    <t>Cliente_Referencia</t>
+  </si>
+  <si>
+    <t>Juan carlos</t>
+  </si>
+  <si>
+    <t>8296365487</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Carlos gomez</t>
+  </si>
+  <si>
+    <t>8496258745</t>
+  </si>
+  <si>
+    <t>Jeuris hernandez</t>
+  </si>
+  <si>
+    <t>8296578457</t>
+  </si>
+  <si>
+    <t>Cliente_Otros</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>facebook: adel sanchez</t>
+  </si>
+  <si>
+    <t>Correo personal: adelsanchez67@yahoo.es</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Union libre</t>
+  </si>
+  <si>
+    <t>Dominicana</t>
+  </si>
+  <si>
+    <t>Haitiana</t>
+  </si>
+  <si>
+    <t>Cubana</t>
+  </si>
+  <si>
+    <t>Venezolana</t>
+  </si>
+  <si>
+    <t>calle beltram 36</t>
+  </si>
+  <si>
+    <t>credifassil@hotmail.com</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Rnc</t>
+  </si>
+  <si>
+    <t>Empresa_Otros</t>
+  </si>
+  <si>
+    <t>Registro:152458445</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Marlyn Miraval</t>
+  </si>
+  <si>
+    <t>marlin@credifassil.com.do</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,6 +1241,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1087,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1194,6 +1406,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,7 +1757,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2292,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,4 +4634,685 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12" style="40" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="42">
+        <v>8092208217</v>
+      </c>
+      <c r="F9" s="42">
+        <v>55000</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>2</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>3</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="59"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>2</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="57"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>1</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>2</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
+        <v>3</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>4</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>1</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="62">
+        <v>8096351254</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="62">
+        <v>8526587558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="67">
+        <v>1</v>
+      </c>
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="65">
+        <v>1</v>
+      </c>
+      <c r="B38" s="65">
+        <v>1</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="65">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="relaciones" sheetId="1" r:id="rId1"/>
     <sheet name="formalizacion 3 formas" sheetId="6" r:id="rId2"/>
     <sheet name="Clientes" sheetId="7" r:id="rId3"/>
-    <sheet name="Cliente" sheetId="8" r:id="rId4"/>
-    <sheet name="Configuraciones" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -322,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -958,186 +956,6 @@
   </si>
   <si>
     <t>GeneroID</t>
-  </si>
-  <si>
-    <t>ClienteID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nacimiento</t>
-  </si>
-  <si>
-    <t>Ocupacion</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Sueldo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Claro dominincana</t>
-  </si>
-  <si>
-    <t>Programador</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>5 años</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>01201103502</t>
-  </si>
-  <si>
-    <t>10/08/1990</t>
-  </si>
-  <si>
-    <t>Dependiente</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8496364367</t>
-  </si>
-  <si>
-    <t>UsuarioID</t>
-  </si>
-  <si>
-    <t>Estado_Civil</t>
-  </si>
-  <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>NacionalidadID</t>
-  </si>
-  <si>
-    <t>EmpresaID</t>
-  </si>
-  <si>
-    <t>Credifassil</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Cliente_Conyuge</t>
-  </si>
-  <si>
-    <t>Cliente_Empleo</t>
-  </si>
-  <si>
-    <t>Rosalis perez</t>
-  </si>
-  <si>
-    <t>8298922597</t>
-  </si>
-  <si>
-    <t>Cliente_Referencia</t>
-  </si>
-  <si>
-    <t>Juan carlos</t>
-  </si>
-  <si>
-    <t>8296365487</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Carlos gomez</t>
-  </si>
-  <si>
-    <t>8496258745</t>
-  </si>
-  <si>
-    <t>Jeuris hernandez</t>
-  </si>
-  <si>
-    <t>8296578457</t>
-  </si>
-  <si>
-    <t>Cliente_Otros</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>facebook: adel sanchez</t>
-  </si>
-  <si>
-    <t>Correo personal: adelsanchez67@yahoo.es</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>Union libre</t>
-  </si>
-  <si>
-    <t>Dominicana</t>
-  </si>
-  <si>
-    <t>Haitiana</t>
-  </si>
-  <si>
-    <t>Cubana</t>
-  </si>
-  <si>
-    <t>Venezolana</t>
-  </si>
-  <si>
-    <t>calle beltram 36</t>
-  </si>
-  <si>
-    <t>credifassil@hotmail.com</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Rnc</t>
-  </si>
-  <si>
-    <t>Empresa_Otros</t>
-  </si>
-  <si>
-    <t>Registro:152458445</t>
-  </si>
-  <si>
-    <t>Clave</t>
-  </si>
-  <si>
-    <t>Marlyn Miraval</t>
-  </si>
-  <si>
-    <t>marlin@credifassil.com.do</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,36 +1059,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1299,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,85 +1194,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1757,7 +1466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2583,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:F54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,685 +4343,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12" style="40" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
-        <v>1</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="42">
-        <v>8092208217</v>
-      </c>
-      <c r="F9" s="42">
-        <v>55000</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="54"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="D31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>2</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>3</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="59"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>1</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
-        <v>2</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="57"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>1</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>2</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
-        <v>3</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>4</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
-        <v>1</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="62">
-        <v>8096351254</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="62">
-        <v>8526587558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
-        <v>1</v>
-      </c>
-      <c r="B32" s="67">
-        <v>1</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
-        <v>1</v>
-      </c>
-      <c r="B38" s="65">
-        <v>1</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E38" s="65">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adelson sanchez\Documents\utilitario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="3"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Cliente" sheetId="8" r:id="rId3"/>
     <sheet name="Interfaz_configurable" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -599,9 +604,6 @@
     <t>Programador</t>
   </si>
   <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
     <t>5 años</t>
   </si>
   <si>
@@ -728,9 +730,6 @@
     <t>credifassil@hotmail.com</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Rnc</t>
   </si>
   <si>
@@ -747,6 +746,33 @@
   </si>
   <si>
     <t>marlin@credifassil.com.do</t>
+  </si>
+  <si>
+    <t>Cliente_Residencia</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>calle jose reyes no. 35 el palmar de herrrera</t>
+  </si>
+  <si>
+    <t>el palmar de herrera</t>
+  </si>
+  <si>
+    <t>Tiempo_Laborando</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>8217</t>
+  </si>
+  <si>
+    <t>Pagina</t>
+  </si>
+  <si>
+    <t>credifassil.com.do</t>
   </si>
 </sst>
 </file>
@@ -799,7 +825,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +892,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1017,7 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1030,9 +1061,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,7 +1342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1334,12 +1370,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
@@ -1380,12 +1416,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1489,11 +1525,11 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1708,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2130,22 +2166,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O32"/>
+  <dimension ref="A2:O37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="23" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="23" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="23" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="12" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="23" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" style="23" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="23" customWidth="1"/>
@@ -2182,13 +2218,13 @@
         <v>84</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>76</v>
@@ -2197,16 +2233,16 @@
         <v>81</v>
       </c>
       <c r="I3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>108</v>
-      </c>
       <c r="K3" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -2220,19 +2256,19 @@
         <v>48</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>77</v>
@@ -2241,13 +2277,13 @@
         <v>47</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -2255,15 +2291,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -2282,19 +2319,22 @@
         <v>86</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8"/>
+      <c r="H8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>90</v>
@@ -2305,14 +2345,17 @@
       <c r="E9" s="25">
         <v>8092208217</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="25">
         <v>55000</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="30"/>
+      <c r="H9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
@@ -2322,192 +2365,241 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10"/>
+      <c r="H10" s="25"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+    </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B20" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C20" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="D20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E21"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="D28" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B34" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C34" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="37" t="s">
+      <c r="B36" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,14 +2623,14 @@
     <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
     <col min="5" max="5" width="23" style="18" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="18" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="39"/>
     </row>
@@ -2555,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2563,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2571,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2706,7 @@
       </c>
       <c r="B16" s="40"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>83</v>
       </c>
@@ -2622,39 +2714,39 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>1</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>2</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>3</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>4</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>5</v>
       </c>
@@ -2664,8 +2756,9 @@
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>83</v>
       </c>
@@ -2679,39 +2772,45 @@
         <v>86</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>1</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="45">
         <v>8096351254</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>134</v>
+      <c r="E26" s="45">
+        <v>8254</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="45">
-        <v>8526587558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="45">
+        <v>54587855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -2719,90 +2818,91 @@
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="H27" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="49">
+        <v>1</v>
+      </c>
+      <c r="B32" s="49">
+        <v>1</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="50">
-        <v>1</v>
-      </c>
-      <c r="B32" s="50">
-        <v>1</v>
-      </c>
-      <c r="C32" s="50" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>1</v>
+      </c>
+      <c r="B38" s="47">
+        <v>1</v>
+      </c>
+      <c r="C38" s="47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="47" t="s">
+      <c r="D38" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
-        <v>1</v>
-      </c>
-      <c r="B38" s="48">
-        <v>1</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="48">
+      <c r="E38" s="47">
         <v>12345</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="relaciones" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>credifassil.com.do</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -1061,14 +1064,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,12 +1373,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
@@ -1416,12 +1419,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1525,11 +1528,11 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2168,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,8 +2351,8 @@
       <c r="F9" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="25">
-        <v>55000</v>
+      <c r="G9" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>92</v>
@@ -2375,46 +2378,46 @@
       <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -2611,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -2172,7 +2172,7 @@
   <dimension ref="A2:O37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adelson sanchez\Documents\utilitario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Cliente" sheetId="8" r:id="rId3"/>
     <sheet name="Interfaz_configurable" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -694,9 +689,6 @@
     <t>8296578457</t>
   </si>
   <si>
-    <t>Cliente_Otros</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
@@ -776,6 +768,9 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>Cliente_Otro</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2171,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,13 +2317,13 @@
         <v>86</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8"/>
     </row>
@@ -2349,10 +2344,10 @@
         <v>8092208217</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>92</v>
@@ -2379,7 +2374,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
@@ -2396,7 +2391,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2407,10 +2402,10 @@
         <v>100</v>
       </c>
       <c r="C15" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2556,7 +2551,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2570,7 +2565,7 @@
         <v>82</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="37"/>
     </row>
@@ -2582,7 +2577,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="37"/>
     </row>
@@ -2594,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="37"/>
     </row>
@@ -2658,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2730,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2746,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,16 +2770,16 @@
         <v>86</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,7 +2790,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="45">
         <v>8096351254</v>
@@ -2804,10 +2799,10 @@
         <v>8254</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="45">
         <v>54587855</v>
@@ -2825,7 +2820,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -2838,7 +2833,7 @@
         <v>107</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="47" t="s">
         <v>138</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>139</v>
       </c>
       <c r="E38" s="47">
         <v>12345</v>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="relaciones" sheetId="1" r:id="rId1"/>
     <sheet name="formalizacion 3 formas" sheetId="6" r:id="rId2"/>
-    <sheet name="Cliente" sheetId="8" r:id="rId3"/>
-    <sheet name="Interfaz_configurable" sheetId="9" r:id="rId4"/>
+    <sheet name="Interfaz_configurable" sheetId="9" r:id="rId3"/>
+    <sheet name="Cliente" sheetId="8" r:id="rId4"/>
+    <sheet name="Prestamo" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +33,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -437,15 +443,9 @@
     <t>historico</t>
   </si>
   <si>
-    <t>entidad</t>
-  </si>
-  <si>
     <t>persona(telefonos,correos)</t>
   </si>
   <si>
-    <t>entidadID</t>
-  </si>
-  <si>
     <t>HistoricoID</t>
   </si>
   <si>
@@ -524,9 +524,6 @@
     <t>formalizacion cero, estado inicial de la tabla cliente</t>
   </si>
   <si>
-    <t>eliminamos el garante y en su lugar ponemos una foreign key</t>
-  </si>
-  <si>
     <t>hogar</t>
   </si>
   <si>
@@ -771,12 +768,78 @@
   </si>
   <si>
     <t>Cliente_Otro</t>
+  </si>
+  <si>
+    <t>modulo</t>
+  </si>
+  <si>
+    <t>usuarioID</t>
+  </si>
+  <si>
+    <t>eliminamos el garante</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>tasa interes</t>
+  </si>
+  <si>
+    <t>tasa mora</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>diario</t>
+  </si>
+  <si>
+    <t>quincenal</t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>plazo</t>
+  </si>
+  <si>
+    <t>forma pago</t>
+  </si>
+  <si>
+    <t>interes</t>
+  </si>
+  <si>
+    <t>fecha creacion</t>
+  </si>
+  <si>
+    <t>fecha inicio</t>
+  </si>
+  <si>
+    <t>marlin</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>cancelado</t>
+  </si>
+  <si>
+    <t>agregar estatus a cliente</t>
+  </si>
+  <si>
+    <t>castigado</t>
+  </si>
+  <si>
+    <t>legal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -924,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,6 +1128,11 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,7 +1196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,7 +1231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,7 +1408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1351,7 +1419,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,12 +1436,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
@@ -1407,19 +1475,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1523,11 +1591,11 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1657,13 +1725,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>15</v>
@@ -1685,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1740,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G48"/>
+  <dimension ref="A4:G50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1829,7 @@
   <sheetData>
     <row r="4" spans="1:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,27 +1848,27 @@
         <v>1</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="20">
         <v>1201103502</v>
@@ -1809,7 +1877,7 @@
         <v>52455885</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="20">
         <v>8496364367</v>
@@ -1823,17 +1891,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1</v>
@@ -1842,10 +1910,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="20">
         <v>8496364367</v>
@@ -1870,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="20">
         <v>8096658745</v>
@@ -1887,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="20">
         <v>8092208217</v>
@@ -1899,12 +1967,12 @@
     </row>
     <row r="16" spans="1:7" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,7 +1984,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>1</v>
@@ -1931,20 +1999,20 @@
         <v>1</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1952,13 +2020,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>2</v>
@@ -1975,7 +2043,7 @@
         <v>8496364367</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +2057,7 @@
         <v>8096658745</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,17 +2071,17 @@
         <v>8092208217</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="20"/>
@@ -2021,13 +2089,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>2</v>
@@ -2044,7 +2112,7 @@
         <v>1201103502</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,102 +2126,117 @@
         <v>52455885</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+    </row>
+    <row r="37" spans="1:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="C41" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>1</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>1</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>1</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>52</v>
+      <c r="B49" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2164,9 +2247,311 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="39"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>1</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>2</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>1</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>2</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>3</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
+        <v>4</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <v>1</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="45">
+        <v>8096351254</v>
+      </c>
+      <c r="E26" s="45">
+        <v>8254</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="45">
+        <v>54587855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="49">
+        <v>1</v>
+      </c>
+      <c r="B32" s="49">
+        <v>1</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
+        <v>1</v>
+      </c>
+      <c r="B38" s="47">
+        <v>1</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="47">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -2207,40 +2592,40 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I3" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -2251,37 +2636,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>104</v>
-      </c>
       <c r="H4" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
@@ -2289,7 +2674,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -2302,28 +2687,28 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="F8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="H8" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I8"/>
     </row>
@@ -2332,25 +2717,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="25">
         <v>8092208217</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>148</v>
-      </c>
       <c r="H9" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="30"/>
@@ -2374,7 +2759,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
@@ -2382,30 +2767,30 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2419,7 +2804,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -2431,16 +2816,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20"/>
       <c r="F20" s="30"/>
@@ -2449,16 +2834,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="30"/>
@@ -2487,7 +2872,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -2495,63 +2880,63 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2559,37 +2944,37 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="37"/>
     </row>
@@ -2605,302 +2990,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+    <row r="1" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>3</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>1</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>2</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>1</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>2</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
-        <v>3</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>257.5</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
-        <v>1</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="45">
-        <v>8096351254</v>
-      </c>
-      <c r="E26" s="45">
-        <v>8254</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="45">
-        <v>54587855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
-        <v>1</v>
-      </c>
-      <c r="B32" s="49">
-        <v>1</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
-        <v>1</v>
-      </c>
-      <c r="B38" s="47">
-        <v>1</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="47">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="54">
+        <v>43500</v>
+      </c>
+      <c r="K2" s="54">
+        <v>43503</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -33,7 +28,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -818,9 +813,6 @@
     <t>marlin</t>
   </si>
   <si>
-    <t>estatus</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -834,12 +826,75 @@
   </si>
   <si>
     <t>legal</t>
+  </si>
+  <si>
+    <t>PrestamoID</t>
+  </si>
+  <si>
+    <t>frances</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>americano</t>
+  </si>
+  <si>
+    <t>Sistema amortiz.</t>
+  </si>
+  <si>
+    <t>CuotaID</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>fecha pago</t>
+  </si>
+  <si>
+    <t>mora</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>atraso</t>
+  </si>
+  <si>
+    <t>saldado</t>
+  </si>
+  <si>
+    <t>concepto</t>
+  </si>
+  <si>
+    <t>estado del pago</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>tasa</t>
+  </si>
+  <si>
+    <t>tabla de moras</t>
+  </si>
+  <si>
+    <t>tasaXdia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1131,10 +1186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1436,12 +1495,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
@@ -1482,12 +1541,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1591,11 +1650,11 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2992,143 +3051,524 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="18" customWidth="1"/>
+    <col min="2" max="5" width="13" style="18"/>
+    <col min="6" max="6" width="11.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="18" customWidth="1"/>
+    <col min="9" max="10" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="18"/>
+    <col min="12" max="12" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="18"/>
+    <col min="14" max="14" width="13.140625" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="13" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="E2" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>30</v>
+      </c>
+      <c r="I3" s="18">
+        <v>257.5</v>
+      </c>
+      <c r="J3" s="18">
         <v>4</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="K3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="54">
+        <v>43500</v>
+      </c>
+      <c r="N3" s="54">
+        <v>43503</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>250</v>
+      </c>
+      <c r="F10" s="18">
+        <f>G10*J29</f>
+        <v>0.6880408394118519</v>
+      </c>
+      <c r="G10" s="18">
+        <v>257.5</v>
+      </c>
+      <c r="H10" s="54">
+        <v>43511</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>250</v>
+      </c>
+      <c r="F11" s="18">
+        <f>G11*J27</f>
+        <v>0.34344777777777774</v>
+      </c>
+      <c r="G11" s="18">
+        <v>257.5</v>
+      </c>
+      <c r="H11" s="54">
+        <v>43524</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>3</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>250</v>
+      </c>
+      <c r="F12" s="18">
+        <f>G12*J26</f>
+        <v>0.17166666666666666</v>
+      </c>
+      <c r="G12" s="18">
+        <v>257.5</v>
+      </c>
+      <c r="H12" s="54">
+        <v>43539</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="18">
+        <v>250</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>257.5</v>
+      </c>
+      <c r="H13" s="54">
+        <v>43554</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="53" t="s">
+      <c r="E16" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1030</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="54">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="54">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="53" t="s">
+      <c r="J22" s="18">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <f>((J25+J21)/100/30)*I26</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="K26" s="18">
+        <f>(K25+J22)*(J21/100/30)*I26</f>
+        <v>0.17166666666666666</v>
+      </c>
+      <c r="L26" s="18">
+        <f>J26*J22</f>
+        <v>0.17166666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="18">
+        <v>2</v>
+      </c>
+      <c r="J27" s="18">
+        <f>((J25+J26+J21)/100/30)*I27</f>
+        <v>1.3337777777777777E-3</v>
+      </c>
+      <c r="K27" s="18">
+        <f>(K26+J22)*(J21/100/30)*I27</f>
+        <v>0.34356222222222221</v>
+      </c>
+      <c r="L27" s="18">
+        <f>J27*J22</f>
+        <v>0.34344777777777774</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I28" s="18">
+        <v>3</v>
+      </c>
+      <c r="J28" s="18">
+        <f>((J25+J26+J27+J21)/100/30)*I28</f>
+        <v>2.0020004444444451E-3</v>
+      </c>
+      <c r="K28" s="18">
+        <f>(K25+K26+K27+J22)*(J21/100/30)*I28</f>
+        <v>0.51603045777777778</v>
+      </c>
+      <c r="L28" s="18">
+        <f>J28*J22</f>
+        <v>0.51551511444444464</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="18">
+        <v>4</v>
+      </c>
+      <c r="J29" s="18">
+        <f>((J25+J26+J27+J28+J21)/100/30)*I29</f>
+        <v>2.6720032598518519E-3</v>
+      </c>
+      <c r="K29" s="18">
+        <f>(K25+K26+K27+K28+J22)*(J21/100/30)*I29</f>
+        <v>0.68941669159111107</v>
+      </c>
+      <c r="L29" s="18">
+        <f>J29*J22</f>
+        <v>0.6880408394118519</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>257.5</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="54">
-        <v>43500</v>
-      </c>
-      <c r="K2" s="54">
-        <v>43503</v>
-      </c>
-      <c r="L2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I30" s="18">
+        <v>5</v>
+      </c>
+      <c r="J30" s="18">
+        <f>((J25+J26+J27+J28+J29+J21)/100/30)*I30</f>
+        <v>3.3444574135812343E-3</v>
+      </c>
+      <c r="K30" s="18">
+        <f>(K25+K26+K27+K28+K29+J22)*(J21/100/30)*I30</f>
+        <v>0.86406892012752579</v>
+      </c>
+      <c r="L30" s="18">
+        <f>J30*J22</f>
+        <v>0.86119778399716784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>168</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/base de datos normalizada.xlsx
+++ b/base de datos normalizada.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="670" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Cliente" sheetId="8" r:id="rId4"/>
     <sheet name="Prestamo" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +33,7 @@
     <author>Adelson</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -849,9 +854,6 @@
     <t>Numero</t>
   </si>
   <si>
-    <t>Monto</t>
-  </si>
-  <si>
     <t>fecha pago</t>
   </si>
   <si>
@@ -873,9 +875,6 @@
     <t>concepto</t>
   </si>
   <si>
-    <t>estado del pago</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -885,16 +884,22 @@
     <t>tasa</t>
   </si>
   <si>
-    <t>tabla de moras</t>
-  </si>
-  <si>
     <t>tasaXdia</t>
+  </si>
+  <si>
+    <t>tabla  moras</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>cargoYabono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1186,11 +1191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,7 +1260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,7 +1295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,7 +1472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1495,12 +1500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
@@ -1541,12 +1546,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1650,11 +1655,11 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3051,18 +3056,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="18" customWidth="1"/>
-    <col min="2" max="5" width="13" style="18"/>
+    <col min="1" max="1" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="18"/>
+    <col min="4" max="4" width="12" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13" style="18"/>
     <col min="6" max="6" width="11.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="18" customWidth="1"/>
     <col min="9" max="10" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="18"/>
@@ -3074,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -3121,7 +3128,7 @@
         <v>161</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3161,11 +3168,11 @@
       <c r="L3" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="54">
-        <v>43500</v>
-      </c>
-      <c r="N3" s="54">
-        <v>43503</v>
+      <c r="M3" s="53">
+        <v>43480</v>
+      </c>
+      <c r="N3" s="53">
+        <v>43480</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>163</v>
@@ -3179,7 +3186,7 @@
         <v>170</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3190,7 +3197,7 @@
         <v>171</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3203,36 +3210,33 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>173</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>174</v>
       </c>
       <c r="D9" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>178</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>177</v>
       </c>
       <c r="G9" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>175</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3246,130 +3250,111 @@
         <v>1</v>
       </c>
       <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
         <v>7.5</v>
       </c>
-      <c r="E10" s="18">
+      <c r="F10" s="18">
         <v>250</v>
-      </c>
-      <c r="F10" s="18">
-        <f>G10*J29</f>
-        <v>0.6880408394118519</v>
       </c>
       <c r="G10" s="18">
         <v>257.5</v>
       </c>
-      <c r="H10" s="54">
-        <v>43511</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>180</v>
+      <c r="H10" s="53">
+        <v>43480</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18">
         <v>2</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
       </c>
       <c r="C11" s="18">
         <v>2</v>
       </c>
       <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
         <v>7.5</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="18">
         <v>250</v>
-      </c>
-      <c r="F11" s="18">
-        <f>G11*J27</f>
-        <v>0.34344777777777774</v>
       </c>
       <c r="G11" s="18">
         <v>257.5</v>
       </c>
-      <c r="H11" s="54">
-        <v>43524</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>180</v>
+      <c r="H11" s="53">
+        <v>43495</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18">
         <v>3</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
       </c>
       <c r="C12" s="18">
         <v>3</v>
       </c>
       <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
         <v>7.5</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="18">
         <v>250</v>
-      </c>
-      <c r="F12" s="18">
-        <f>G12*J26</f>
-        <v>0.17166666666666666</v>
       </c>
       <c r="G12" s="18">
         <v>257.5</v>
       </c>
-      <c r="H12" s="54">
-        <v>43539</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>163</v>
+      <c r="H12" s="53">
+        <v>43511</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18">
         <v>4</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
       </c>
       <c r="C13" s="18">
         <v>4</v>
       </c>
       <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
         <v>7.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>250</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
       </c>
       <c r="G13" s="18">
         <v>257.5</v>
       </c>
-      <c r="H13" s="54">
-        <v>43554</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>183</v>
+      <c r="H13" s="53">
+        <v>43524</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K14" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K15" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="B16" s="43" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>2</v>
@@ -3378,196 +3363,496 @@
         <v>150</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
       <c r="B17" s="18">
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="18">
+        <v>250</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="53">
+        <v>43480</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="53">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="53">
+        <v>43485</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="53"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="53"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>1</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>1</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>1</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="53"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="53"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="53"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="53"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="18">
         <v>1030</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E49" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F49" s="53">
         <v>43500</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="18">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
+        <v>1</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="18">
+        <v>10</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="53">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I52" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I53" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="18">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I56" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I57" s="18">
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I58" s="18">
+        <v>1</v>
+      </c>
+      <c r="J58" s="18">
+        <f>((J57+J53)/100/30)*I58</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="K58" s="18">
+        <f>(K57+J54)*(J53/100/30)*I58</f>
+        <v>0.17166666666666666</v>
+      </c>
+      <c r="L58" s="18">
+        <f>J58*J54</f>
+        <v>0.17166666666666666</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I59" s="18">
+        <v>2</v>
+      </c>
+      <c r="J59" s="18">
+        <f>((J57+J58+J53)/100/30)*I59</f>
+        <v>1.3337777777777777E-3</v>
+      </c>
+      <c r="K59" s="18">
+        <f>(K58+J54)*(J53/100/30)*I59</f>
+        <v>0.34356222222222221</v>
+      </c>
+      <c r="L59" s="18">
+        <f>J59*J54</f>
+        <v>0.34344777777777774</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I60" s="18">
+        <v>3</v>
+      </c>
+      <c r="J60" s="18">
+        <f>((J57+J58+J59+J53)/100/30)*I60</f>
+        <v>2.0020004444444451E-3</v>
+      </c>
+      <c r="K60" s="18">
+        <f>(K57+K58+K59+J54)*(J53/100/30)*I60</f>
+        <v>0.51603045777777778</v>
+      </c>
+      <c r="L60" s="18">
+        <f>J60*J54</f>
+        <v>0.51551511444444464</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D61" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I61" s="18">
+        <v>4</v>
+      </c>
+      <c r="J61" s="18">
+        <f>((J57+J58+J59+J60+J53)/100/30)*I61</f>
+        <v>2.6720032598518519E-3</v>
+      </c>
+      <c r="K61" s="18">
+        <f>(K57+K58+K59+K60+J54)*(J53/100/30)*I61</f>
+        <v>0.68941669159111107</v>
+      </c>
+      <c r="L61" s="18">
+        <f>J61*J54</f>
+        <v>0.6880408394118519</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D62" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="18">
         <v>5</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="54">
-        <v>43524</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" s="55"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J21" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="18">
-        <v>257.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18">
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="18">
-        <f>((J25+J21)/100/30)*I26</f>
-        <v>6.6666666666666664E-4</v>
-      </c>
-      <c r="K26" s="18">
-        <f>(K25+J22)*(J21/100/30)*I26</f>
-        <v>0.17166666666666666</v>
-      </c>
-      <c r="L26" s="18">
-        <f>J26*J22</f>
-        <v>0.17166666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="18">
-        <v>2</v>
-      </c>
-      <c r="J27" s="18">
-        <f>((J25+J26+J21)/100/30)*I27</f>
-        <v>1.3337777777777777E-3</v>
-      </c>
-      <c r="K27" s="18">
-        <f>(K26+J22)*(J21/100/30)*I27</f>
-        <v>0.34356222222222221</v>
-      </c>
-      <c r="L27" s="18">
-        <f>J27*J22</f>
-        <v>0.34344777777777774</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="18">
-        <v>3</v>
-      </c>
-      <c r="J28" s="18">
-        <f>((J25+J26+J27+J21)/100/30)*I28</f>
-        <v>2.0020004444444451E-3</v>
-      </c>
-      <c r="K28" s="18">
-        <f>(K25+K26+K27+J22)*(J21/100/30)*I28</f>
-        <v>0.51603045777777778</v>
-      </c>
-      <c r="L28" s="18">
-        <f>J28*J22</f>
-        <v>0.51551511444444464</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="18">
-        <v>4</v>
-      </c>
-      <c r="J29" s="18">
-        <f>((J25+J26+J27+J28+J21)/100/30)*I29</f>
-        <v>2.6720032598518519E-3</v>
-      </c>
-      <c r="K29" s="18">
-        <f>(K25+K26+K27+K28+J22)*(J21/100/30)*I29</f>
-        <v>0.68941669159111107</v>
-      </c>
-      <c r="L29" s="18">
-        <f>J29*J22</f>
-        <v>0.6880408394118519</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="18">
-        <v>5</v>
-      </c>
-      <c r="J30" s="18">
-        <f>((J25+J26+J27+J28+J29+J21)/100/30)*I30</f>
+      <c r="J62" s="18">
+        <f>((J57+J58+J59+J60+J61+J53)/100/30)*I62</f>
         <v>3.3444574135812343E-3</v>
       </c>
-      <c r="K30" s="18">
-        <f>(K25+K26+K27+K28+K29+J22)*(J21/100/30)*I30</f>
+      <c r="K62" s="18">
+        <f>(K57+K58+K59+K60+K61+J54)*(J53/100/30)*I62</f>
         <v>0.86406892012752579</v>
       </c>
-      <c r="L30" s="18">
-        <f>J30*J22</f>
+      <c r="L62" s="18">
+        <f>J62*J54</f>
         <v>0.86119778399716784</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="18" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D63" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="18" t="s">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D64" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="18" t="s">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="18" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I52:J52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
